--- a/tour_sheets/TourSheet_Tuesday.xlsx
+++ b/tour_sheets/TourSheet_Tuesday.xlsx
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2543,10 +2543,10 @@
         <v>91</v>
       </c>
       <c r="D69" s="7">
-        <v>4900276</v>
+        <v>4900283</v>
       </c>
       <c r="E69" s="7">
-        <v>4900276</v>
+        <v>1212214</v>
       </c>
       <c r="F69" s="3">
         <v>3</v>
@@ -2832,25 +2832,25 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="4">
+      <c r="A82" s="2">
         <v>4</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="7">
         <v>4900574</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="7">
         <v>1211174</v>
       </c>
-      <c r="F82" s="5">
-        <v>2</v>
-      </c>
-      <c r="G82" s="5" t="s">
+      <c r="F82" s="3">
+        <v>2</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/tour_sheets/TourSheet_Tuesday.xlsx
+++ b/tour_sheets/TourSheet_Tuesday.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="208">
   <si>
     <t>Tuesday</t>
   </si>
@@ -640,12 +640,6 @@
   </si>
   <si>
     <t>Käthe-Kollwitz-Straße 72</t>
-  </si>
-  <si>
-    <t>Start A</t>
-  </si>
-  <si>
-    <t>End A</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1040,67 +1034,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4">
+        <v>159</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4898718</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1216508</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3">
-        <v>205</v>
+      <c r="A3" s="4">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4898487</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1216804</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>160</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4898467</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1217069</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
+      <c r="A5" s="4">
+        <v>463</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4898682</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1216929</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D6" s="6">
-        <v>4898718</v>
+        <v>4898561</v>
       </c>
       <c r="E6" s="6">
-        <v>1216508</v>
+        <v>1217584</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>0</v>
@@ -1108,19 +1172,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4">
-        <v>24</v>
+        <v>457</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="8">
-        <v>4898487</v>
+        <v>58</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4898690</v>
       </c>
       <c r="E7" s="6">
-        <v>1216804</v>
+        <v>1217432</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -1131,19 +1195,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D8" s="6">
-        <v>4898467</v>
+        <v>4898823</v>
       </c>
       <c r="E8" s="6">
-        <v>1217069</v>
+        <v>1217265</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1154,19 +1218,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6">
-        <v>4898682</v>
+        <v>4900144</v>
       </c>
       <c r="E9" s="6">
-        <v>1216929</v>
+        <v>1216679</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1177,22 +1241,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6">
-        <v>4898561</v>
+        <v>4900324</v>
       </c>
       <c r="E10" s="6">
-        <v>1217584</v>
+        <v>1216517</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>0</v>
@@ -1200,19 +1264,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4">
-        <v>457</v>
+        <v>165</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6">
-        <v>4898690</v>
+        <v>4901162</v>
       </c>
       <c r="E11" s="6">
-        <v>1217432</v>
+        <v>1216124</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -1223,19 +1287,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D12" s="6">
-        <v>4898823</v>
+        <v>4900713</v>
       </c>
       <c r="E12" s="6">
-        <v>1217265</v>
+        <v>1217833</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -1246,19 +1310,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="D13" s="6">
-        <v>4900144</v>
+        <v>4899782</v>
       </c>
       <c r="E13" s="6">
-        <v>1216679</v>
+        <v>1210113</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1268,89 +1332,89 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4">
-        <v>164</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="6">
-        <v>4900324</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1216517</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="A14" s="2">
+        <v>220</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4899901</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1210210</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4">
-        <v>165</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4901162</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1216124</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="A15" s="2">
+        <v>254</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4899899</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1210070</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <v>166</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4900713</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1217833</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="A16" s="2">
+        <v>204</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4900885</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1210151</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6">
-        <v>4899782</v>
+        <v>4901061</v>
       </c>
       <c r="E17" s="6">
-        <v>1210113</v>
+        <v>1210891</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -1361,88 +1425,88 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7">
-        <v>4899901</v>
+        <v>4901005</v>
       </c>
       <c r="E18" s="7">
-        <v>1210210</v>
+        <v>1210937</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>254</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4899899</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1210070</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="A19" s="4">
+        <v>464</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4901041</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1210559</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>204</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4900885</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1210151</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="A20" s="4">
+        <v>476</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4901084</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1210381</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4">
-        <v>57</v>
+        <v>472</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D21" s="6">
-        <v>4901061</v>
+        <v>4900742</v>
       </c>
       <c r="E21" s="6">
-        <v>1210891</v>
+        <v>1211659</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1453,19 +1517,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>4901005</v>
+        <v>4900959</v>
       </c>
       <c r="E22" s="7">
-        <v>1210937</v>
+        <v>1210789</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1476,19 +1540,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D23" s="6">
-        <v>4901041</v>
+        <v>4900769</v>
       </c>
       <c r="E23" s="6">
-        <v>1210559</v>
+        <v>1210022</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
@@ -1499,19 +1563,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4">
-        <v>476</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D24" s="6">
-        <v>4901084</v>
+        <v>4900780</v>
       </c>
       <c r="E24" s="6">
-        <v>1210381</v>
+        <v>1210902</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
@@ -1522,19 +1586,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4">
-        <v>472</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="D25" s="6">
-        <v>4900742</v>
+        <v>4900937</v>
       </c>
       <c r="E25" s="6">
-        <v>1211659</v>
+        <v>1210596</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -1544,66 +1608,66 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="2">
-        <v>216</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="7">
-        <v>4900959</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1210789</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="A26" s="4">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4900713</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1210564</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4">
-        <v>468</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="6">
-        <v>4900769</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1210022</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="A27" s="2">
+        <v>233</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4900682</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1210414</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D28" s="6">
-        <v>4900780</v>
+        <v>4900565</v>
       </c>
       <c r="E28" s="6">
-        <v>1210902</v>
+        <v>1210229</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
@@ -1614,19 +1678,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D29" s="6">
-        <v>4900937</v>
+        <v>4900369</v>
       </c>
       <c r="E29" s="6">
-        <v>1210596</v>
+        <v>1210238</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -1636,46 +1700,46 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4">
-        <v>32</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="6">
-        <v>4900713</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1210564</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="A30" s="2">
+        <v>229</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4900319</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1210508</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="7">
-        <v>4900682</v>
+        <v>4900406</v>
       </c>
       <c r="E31" s="7">
-        <v>1210414</v>
+        <v>1210734</v>
       </c>
       <c r="F31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>0</v>
@@ -1683,19 +1747,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4">
-        <v>34</v>
+        <v>490</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="D32" s="6">
-        <v>4900565</v>
+        <v>4900515</v>
       </c>
       <c r="E32" s="6">
-        <v>1210229</v>
+        <v>1210551</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
@@ -1705,43 +1769,43 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4">
-        <v>30</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4900369</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1210238</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="A33" s="2">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4900516</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1210444</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D34" s="7">
-        <v>4900319</v>
+        <v>4900622</v>
       </c>
       <c r="E34" s="7">
-        <v>1210508</v>
+        <v>1210821</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -1752,19 +1816,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D35" s="7">
-        <v>4900406</v>
+        <v>4900634</v>
       </c>
       <c r="E35" s="7">
-        <v>1210734</v>
+        <v>1210823</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -1775,19 +1839,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4">
-        <v>490</v>
+        <v>55</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D36" s="6">
-        <v>4900515</v>
+        <v>4900613</v>
       </c>
       <c r="E36" s="6">
-        <v>1210551</v>
+        <v>1210961</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
@@ -1798,19 +1862,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D37" s="7">
-        <v>4900516</v>
+        <v>4900543</v>
       </c>
       <c r="E37" s="7">
-        <v>1210444</v>
+        <v>1210544</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -1821,19 +1885,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D38" s="7">
-        <v>4900622</v>
+        <v>4900558</v>
       </c>
       <c r="E38" s="7">
-        <v>1210821</v>
+        <v>1210589</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1843,135 +1907,135 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2">
-        <v>41</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="7">
-        <v>4900634</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1210823</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="A39" s="4">
+        <v>29</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="6">
+        <v>4900127</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1210678</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="4">
-        <v>55</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="6">
-        <v>4900613</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1210961</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="A40" s="2">
+        <v>117</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="7">
+        <v>4900019</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1210748</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="7">
-        <v>4900543</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1210544</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="A41" s="4">
+        <v>21</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="6">
+        <v>4899554</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1210407</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D42" s="7">
-        <v>4900558</v>
+        <v>4899417</v>
       </c>
       <c r="E42" s="7">
-        <v>1210589</v>
+        <v>1210527</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="4">
-        <v>29</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" s="6">
-        <v>4900127</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1210678</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="A43" s="2">
+        <v>174</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="7">
+        <v>4899562</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1210470</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="D44" s="7">
-        <v>4900019</v>
+        <v>4899596</v>
       </c>
       <c r="E44" s="7">
-        <v>1210748</v>
+        <v>1210701</v>
       </c>
       <c r="F44" s="3">
         <v>2</v>
@@ -1982,19 +2046,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D45" s="6">
-        <v>4899554</v>
+        <v>4899605</v>
       </c>
       <c r="E45" s="6">
-        <v>1210407</v>
+        <v>1210741</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2005,22 +2069,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D46" s="7">
-        <v>4899417</v>
+        <v>4899619</v>
       </c>
       <c r="E46" s="7">
-        <v>1210527</v>
+        <v>1210806</v>
       </c>
       <c r="F46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>0</v>
@@ -2028,65 +2092,65 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D47" s="7">
-        <v>4899562</v>
+        <v>4899688</v>
       </c>
       <c r="E47" s="7">
-        <v>1210470</v>
+        <v>1210938</v>
       </c>
       <c r="F47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="2">
-        <v>173</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="7">
-        <v>4899596</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1210701</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="A48" s="4">
+        <v>17</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="6">
+        <v>4899693</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1210961</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D49" s="6">
-        <v>4899605</v>
+        <v>4900111</v>
       </c>
       <c r="E49" s="6">
-        <v>1210741</v>
+        <v>1211057</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -2096,66 +2160,66 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="2">
-        <v>172</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="7">
-        <v>4899619</v>
-      </c>
-      <c r="E50" s="7">
-        <v>1210806</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="6">
+        <v>4900105</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1211217</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="2">
-        <v>38</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="7">
-        <v>4899688</v>
-      </c>
-      <c r="E51" s="7">
-        <v>1210938</v>
-      </c>
-      <c r="F51" s="3">
-        <v>2</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="A51" s="4">
+        <v>18</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6">
+        <v>4899684</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1211156</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D52" s="6">
-        <v>4899693</v>
+        <v>4899881</v>
       </c>
       <c r="E52" s="6">
-        <v>1210961</v>
+        <v>1211266</v>
       </c>
       <c r="F52" s="5">
         <v>1</v>
@@ -2166,19 +2230,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D53" s="6">
-        <v>4900111</v>
+        <v>4899760</v>
       </c>
       <c r="E53" s="6">
-        <v>1211057</v>
+        <v>1211442</v>
       </c>
       <c r="F53" s="5">
         <v>1</v>
@@ -2188,89 +2252,89 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="4">
-        <v>46</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="6">
-        <v>4900105</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1211217</v>
-      </c>
-      <c r="F54" s="5">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5" t="s">
+      <c r="A54" s="2">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="7">
+        <v>4900108</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1211781</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="4">
-        <v>18</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="6">
-        <v>4899684</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1211156</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="A55" s="2">
+        <v>167</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="7">
+        <v>4900089</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1211856</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="4">
-        <v>496</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="6">
-        <v>4899881</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1211266</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5" t="s">
+      <c r="A56" s="2">
+        <v>81</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="7">
+        <v>4900035</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1212122</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D57" s="6">
-        <v>4899760</v>
+        <v>4900105</v>
       </c>
       <c r="E57" s="6">
-        <v>1211442</v>
+        <v>1211738</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
@@ -2280,69 +2344,69 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="2">
-        <v>106</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="7">
-        <v>4900108</v>
-      </c>
-      <c r="E58" s="7">
-        <v>1211781</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="A58" s="4">
+        <v>20</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4899878</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1211738</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="2">
-        <v>167</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="7">
-        <v>4900089</v>
-      </c>
-      <c r="E59" s="7">
-        <v>1211856</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="A59" s="4">
+        <v>28</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="6">
+        <v>4899887</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1211895</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D60" s="7">
-        <v>4900035</v>
+        <v>4899757</v>
       </c>
       <c r="E60" s="7">
-        <v>1212122</v>
+        <v>1212794</v>
       </c>
       <c r="F60" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>0</v>
@@ -2350,19 +2414,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D61" s="6">
-        <v>4900105</v>
+        <v>4899703</v>
       </c>
       <c r="E61" s="6">
-        <v>1211738</v>
+        <v>1212650</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
@@ -2373,19 +2437,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D62" s="6">
-        <v>4899878</v>
+        <v>4899736</v>
       </c>
       <c r="E62" s="6">
-        <v>1211738</v>
+        <v>1213133</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
@@ -2395,89 +2459,89 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="4">
-        <v>28</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="6">
-        <v>4899887</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1211895</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5" t="s">
+      <c r="A63" s="2">
+        <v>211</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="7">
+        <v>4899849</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1213179</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D64" s="7">
-        <v>4899757</v>
+        <v>4900247</v>
       </c>
       <c r="E64" s="7">
-        <v>1212794</v>
+        <v>1212249</v>
       </c>
       <c r="F64" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="4">
-        <v>26</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="6">
-        <v>4899703</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1212650</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5" t="s">
+      <c r="A65" s="2">
+        <v>213</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="7">
+        <v>4900283</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1212214</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D66" s="6">
-        <v>4899736</v>
+        <v>4900323</v>
       </c>
       <c r="E66" s="6">
-        <v>1213133</v>
+        <v>1211902</v>
       </c>
       <c r="F66" s="5">
         <v>1</v>
@@ -2487,43 +2551,43 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="2">
-        <v>211</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="7">
-        <v>4899849</v>
-      </c>
-      <c r="E67" s="7">
-        <v>1213179</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="A67" s="4">
+        <v>48</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="6">
+        <v>4900441</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1211771</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="D68" s="7">
-        <v>4900247</v>
+        <v>4900399</v>
       </c>
       <c r="E68" s="7">
-        <v>1212249</v>
+        <v>1211706</v>
       </c>
       <c r="F68" s="3">
         <v>2</v>
@@ -2534,88 +2598,88 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="D69" s="7">
-        <v>4900283</v>
+        <v>4900351</v>
       </c>
       <c r="E69" s="7">
-        <v>1212214</v>
+        <v>1211904</v>
       </c>
       <c r="F69" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="4">
-        <v>49</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="6">
-        <v>4900323</v>
-      </c>
-      <c r="E70" s="6">
-        <v>1211902</v>
-      </c>
-      <c r="F70" s="5">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="A70" s="2">
+        <v>44</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="7">
+        <v>4900497</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1211970</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="4">
-        <v>48</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="6">
-        <v>4900441</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1211771</v>
-      </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="A71" s="2">
+        <v>47</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="7">
+        <v>4900193</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1212288</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D72" s="7">
-        <v>4900399</v>
+        <v>4900420</v>
       </c>
       <c r="E72" s="7">
-        <v>1211706</v>
+        <v>1211535</v>
       </c>
       <c r="F72" s="3">
         <v>2</v>
@@ -2625,184 +2689,184 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="2">
-        <v>45</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="7">
-        <v>4900351</v>
-      </c>
-      <c r="E73" s="7">
-        <v>1211904</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="A73" s="4">
+        <v>47</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="6">
+        <v>4900330</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1211614</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="2">
-        <v>44</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="7">
-        <v>4900497</v>
-      </c>
-      <c r="E74" s="7">
-        <v>1211970</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="A74" s="4">
+        <v>51</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="6">
+        <v>4900394</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1211524</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="2">
-        <v>47</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D75" s="7">
-        <v>4900193</v>
-      </c>
-      <c r="E75" s="7">
-        <v>1212288</v>
-      </c>
-      <c r="F75" s="3">
-        <v>2</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="A75" s="4">
+        <v>52</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="6">
+        <v>4900466</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1211249</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D76" s="7">
-        <v>4900420</v>
+        <v>4900626</v>
       </c>
       <c r="E76" s="7">
-        <v>1211535</v>
+        <v>1211376</v>
       </c>
       <c r="F76" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="4">
-        <v>47</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="6">
-        <v>4900330</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1211614</v>
-      </c>
-      <c r="F77" s="5">
-        <v>1</v>
-      </c>
-      <c r="G77" s="5" t="s">
+      <c r="A77" s="2">
+        <v>11</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="7">
+        <v>4900703</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1211509</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="4">
-        <v>51</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" s="6">
-        <v>4900394</v>
-      </c>
-      <c r="E78" s="6">
-        <v>1211524</v>
-      </c>
-      <c r="F78" s="5">
-        <v>1</v>
-      </c>
-      <c r="G78" s="5" t="s">
+      <c r="A78" s="2">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="7">
+        <v>4900574</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1211174</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="4">
-        <v>52</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" s="6">
-        <v>4900466</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1211249</v>
-      </c>
-      <c r="F79" s="5">
-        <v>1</v>
-      </c>
-      <c r="G79" s="5" t="s">
+      <c r="A79" s="2">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="7">
+        <v>4900682</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1211274</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="D80" s="7">
-        <v>4900626</v>
+        <v>4900574</v>
       </c>
       <c r="E80" s="7">
-        <v>1211376</v>
+        <v>1211212</v>
       </c>
       <c r="F80" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>0</v>
@@ -2810,22 +2874,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D81" s="7">
-        <v>4900703</v>
+        <v>4900595</v>
       </c>
       <c r="E81" s="7">
-        <v>1211509</v>
+        <v>1211247</v>
       </c>
       <c r="F81" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>0</v>
@@ -2833,19 +2897,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D82" s="7">
-        <v>4900574</v>
+        <v>4900682</v>
       </c>
       <c r="E82" s="7">
-        <v>1211174</v>
+        <v>1211333</v>
       </c>
       <c r="F82" s="3">
         <v>2</v>
@@ -2855,66 +2919,66 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="2">
-        <v>5</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83" s="7">
-        <v>4900682</v>
-      </c>
-      <c r="E83" s="7">
-        <v>1211274</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="A83" s="4">
+        <v>42</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="6">
+        <v>4900532</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1211003</v>
+      </c>
+      <c r="F83" s="5">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="2">
-        <v>8</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="7">
-        <v>4900574</v>
-      </c>
-      <c r="E84" s="7">
-        <v>1211212</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="A84" s="4">
+        <v>43</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="6">
+        <v>4900650</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1211131</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="D85" s="7">
-        <v>4900595</v>
+        <v>4900800</v>
       </c>
       <c r="E85" s="7">
-        <v>1211247</v>
+        <v>1211156</v>
       </c>
       <c r="F85" s="3">
         <v>1</v>
@@ -2925,137 +2989,137 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="D86" s="7">
-        <v>4900682</v>
+        <v>4900689</v>
       </c>
       <c r="E86" s="7">
-        <v>1211333</v>
+        <v>1211167</v>
       </c>
       <c r="F86" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="4">
-        <v>42</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" s="6">
-        <v>4900532</v>
-      </c>
-      <c r="E87" s="6">
-        <v>1211003</v>
-      </c>
-      <c r="F87" s="5">
-        <v>1</v>
-      </c>
-      <c r="G87" s="5" t="s">
+      <c r="A87" s="2">
+        <v>214</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="7">
+        <v>4900794</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1211120</v>
+      </c>
+      <c r="F87" s="3">
+        <v>3</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="4">
-        <v>43</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="6">
-        <v>4900650</v>
-      </c>
-      <c r="E88" s="6">
-        <v>1211131</v>
-      </c>
-      <c r="F88" s="5">
-        <v>1</v>
-      </c>
-      <c r="G88" s="5" t="s">
+      <c r="A88" s="2">
+        <v>215</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="7">
+        <v>4900723</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1211057</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D89" s="7">
-        <v>4900800</v>
+        <v>4900979</v>
       </c>
       <c r="E89" s="7">
-        <v>1211156</v>
+        <v>1211096</v>
       </c>
       <c r="F89" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="2">
-        <v>9</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="7">
-        <v>4900689</v>
-      </c>
-      <c r="E90" s="7">
-        <v>1211167</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="A90" s="4">
+        <v>44</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="6">
+        <v>4900229</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1210988</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D91" s="7">
-        <v>4900794</v>
+        <v>4900959</v>
       </c>
       <c r="E91" s="7">
-        <v>1211120</v>
+        <v>1211777</v>
       </c>
       <c r="F91" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>0</v>
@@ -3063,19 +3127,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="D92" s="7">
-        <v>4900723</v>
+        <v>4900776</v>
       </c>
       <c r="E92" s="7">
-        <v>1211057</v>
+        <v>1212032</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
@@ -3085,43 +3149,43 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="2">
-        <v>30</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="7">
-        <v>4900979</v>
-      </c>
-      <c r="E93" s="7">
-        <v>1211096</v>
-      </c>
-      <c r="F93" s="3">
-        <v>2</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="A93" s="4">
+        <v>64</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="6">
+        <v>4900742</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1212013</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="D94" s="6">
-        <v>4900229</v>
+        <v>4898493</v>
       </c>
       <c r="E94" s="6">
-        <v>1210988</v>
+        <v>1216796</v>
       </c>
       <c r="F94" s="5">
         <v>1</v>
@@ -3132,22 +3196,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="D95" s="7">
-        <v>4900959</v>
+        <v>4900865</v>
       </c>
       <c r="E95" s="7">
-        <v>1211777</v>
+        <v>1211839</v>
       </c>
       <c r="F95" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>0</v>
@@ -3155,65 +3219,65 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D96" s="7">
-        <v>4900776</v>
+        <v>4900857</v>
       </c>
       <c r="E96" s="7">
-        <v>1212032</v>
+        <v>1211955</v>
       </c>
       <c r="F96" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="4">
-        <v>64</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="6">
-        <v>4900742</v>
-      </c>
-      <c r="E97" s="6">
-        <v>1212013</v>
-      </c>
-      <c r="F97" s="5">
-        <v>1</v>
-      </c>
-      <c r="G97" s="5" t="s">
+      <c r="A97" s="2">
+        <v>19</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="7">
+        <v>4900735</v>
+      </c>
+      <c r="E97" s="7">
+        <v>1212035</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D98" s="6">
-        <v>4898493</v>
+        <v>4900793</v>
       </c>
       <c r="E98" s="6">
-        <v>1216796</v>
+        <v>1212355</v>
       </c>
       <c r="F98" s="5">
         <v>1</v>
@@ -3224,19 +3288,19 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="D99" s="7">
-        <v>4900865</v>
+        <v>4900700</v>
       </c>
       <c r="E99" s="7">
-        <v>1211839</v>
+        <v>1212282</v>
       </c>
       <c r="F99" s="3">
         <v>2</v>
@@ -3246,43 +3310,43 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="2">
-        <v>28</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D100" s="7">
-        <v>4900857</v>
-      </c>
-      <c r="E100" s="7">
-        <v>1211955</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2</v>
-      </c>
-      <c r="G100" s="3" t="s">
+      <c r="A100" s="4">
+        <v>62</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="6">
+        <v>4900869</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1212190</v>
+      </c>
+      <c r="F100" s="5">
+        <v>1</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="D101" s="7">
-        <v>4900735</v>
+        <v>4900886</v>
       </c>
       <c r="E101" s="7">
-        <v>1212035</v>
+        <v>1212154</v>
       </c>
       <c r="F101" s="3">
         <v>1</v>
@@ -3292,135 +3356,135 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="4">
-        <v>63</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D102" s="6">
-        <v>4900793</v>
-      </c>
-      <c r="E102" s="6">
-        <v>1212355</v>
-      </c>
-      <c r="F102" s="5">
-        <v>1</v>
-      </c>
-      <c r="G102" s="5" t="s">
+      <c r="A102" s="2">
+        <v>26</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="7">
+        <v>4900925</v>
+      </c>
+      <c r="E102" s="7">
+        <v>1212020</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D103" s="7">
-        <v>4900700</v>
+        <v>4900937</v>
       </c>
       <c r="E103" s="7">
-        <v>1212282</v>
+        <v>1212078</v>
       </c>
       <c r="F103" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="4">
-        <v>62</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D104" s="6">
-        <v>4900869</v>
-      </c>
-      <c r="E104" s="6">
-        <v>1212190</v>
-      </c>
-      <c r="F104" s="5">
-        <v>1</v>
-      </c>
-      <c r="G104" s="5" t="s">
+      <c r="A104" s="2">
+        <v>27</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="7">
+        <v>4900904</v>
+      </c>
+      <c r="E104" s="7">
+        <v>1212188</v>
+      </c>
+      <c r="F104" s="3">
+        <v>2</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D105" s="7">
-        <v>4900886</v>
+        <v>4901034</v>
       </c>
       <c r="E105" s="7">
-        <v>1212154</v>
+        <v>1211946</v>
       </c>
       <c r="F105" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="2">
-        <v>26</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106" s="7">
-        <v>4900925</v>
-      </c>
-      <c r="E106" s="7">
-        <v>1212020</v>
-      </c>
-      <c r="F106" s="3">
-        <v>2</v>
-      </c>
-      <c r="G106" s="3" t="s">
+      <c r="A106" s="4">
+        <v>61</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="6">
+        <v>4901062</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1211866</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D107" s="7">
-        <v>4900937</v>
+        <v>4901119</v>
       </c>
       <c r="E107" s="7">
-        <v>1212078</v>
+        <v>1211244</v>
       </c>
       <c r="F107" s="3">
         <v>1</v>
@@ -3431,114 +3495,114 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D108" s="7">
-        <v>4900904</v>
+        <v>4901099</v>
       </c>
       <c r="E108" s="7">
-        <v>1212188</v>
+        <v>1211540</v>
       </c>
       <c r="F108" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="2">
-        <v>25</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="7">
-        <v>4901034</v>
-      </c>
-      <c r="E109" s="7">
-        <v>1211946</v>
-      </c>
-      <c r="F109" s="3">
-        <v>3</v>
-      </c>
-      <c r="G109" s="3" t="s">
+      <c r="A109" s="4">
+        <v>60</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="6">
+        <v>4901117</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1211319</v>
+      </c>
+      <c r="F109" s="5">
+        <v>2</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="4">
-        <v>61</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" s="6">
-        <v>4901062</v>
-      </c>
-      <c r="E110" s="6">
-        <v>1211866</v>
-      </c>
-      <c r="F110" s="5">
-        <v>1</v>
-      </c>
-      <c r="G110" s="5" t="s">
+      <c r="A110" s="2">
+        <v>2</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="7">
+        <v>4901016</v>
+      </c>
+      <c r="E110" s="7">
+        <v>1211763</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="2">
-        <v>98</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="7">
-        <v>4901119</v>
-      </c>
-      <c r="E111" s="7">
-        <v>1211244</v>
-      </c>
-      <c r="F111" s="3">
-        <v>1</v>
-      </c>
-      <c r="G111" s="3" t="s">
+      <c r="A111" s="4">
+        <v>59</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="6">
+        <v>4901033</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1211670</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D112" s="7">
-        <v>4901099</v>
+        <v>4900869</v>
       </c>
       <c r="E112" s="7">
-        <v>1211540</v>
+        <v>1211275</v>
       </c>
       <c r="F112" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>0</v>
@@ -3546,22 +3610,22 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D113" s="6">
-        <v>4901117</v>
+        <v>4900906</v>
       </c>
       <c r="E113" s="6">
-        <v>1211319</v>
+        <v>1211336</v>
       </c>
       <c r="F113" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>0</v>
@@ -3569,19 +3633,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="D114" s="7">
-        <v>4901016</v>
+        <v>4901292</v>
       </c>
       <c r="E114" s="7">
-        <v>1211763</v>
+        <v>1211249</v>
       </c>
       <c r="F114" s="3">
         <v>2</v>
@@ -3592,19 +3656,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="D115" s="6">
-        <v>4901033</v>
+        <v>4901315</v>
       </c>
       <c r="E115" s="6">
-        <v>1211670</v>
+        <v>1211270</v>
       </c>
       <c r="F115" s="5">
         <v>1</v>
@@ -3614,43 +3678,43 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="2">
-        <v>72</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="7">
-        <v>4900869</v>
-      </c>
-      <c r="E116" s="7">
-        <v>1211275</v>
-      </c>
-      <c r="F116" s="3">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="A116" s="4">
+        <v>173</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="6">
+        <v>4901217</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1211098</v>
+      </c>
+      <c r="F116" s="5">
+        <v>1</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D117" s="6">
-        <v>4900906</v>
+        <v>4901425</v>
       </c>
       <c r="E117" s="6">
-        <v>1211336</v>
+        <v>1211946</v>
       </c>
       <c r="F117" s="5">
         <v>1</v>
@@ -3661,160 +3725,160 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="D118" s="7">
-        <v>4901292</v>
+        <v>4901457</v>
       </c>
       <c r="E118" s="7">
-        <v>1211249</v>
+        <v>1212213</v>
       </c>
       <c r="F118" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="4">
-        <v>174</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D119" s="6">
-        <v>4901315</v>
-      </c>
-      <c r="E119" s="6">
-        <v>1211270</v>
-      </c>
-      <c r="F119" s="5">
-        <v>1</v>
-      </c>
-      <c r="G119" s="5" t="s">
+      <c r="A119" s="2">
+        <v>20</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119" s="7">
+        <v>4901481</v>
+      </c>
+      <c r="E119" s="7">
+        <v>1212069</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="4">
-        <v>173</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="6">
-        <v>4901217</v>
-      </c>
-      <c r="E120" s="6">
-        <v>1211098</v>
-      </c>
-      <c r="F120" s="5">
-        <v>1</v>
-      </c>
-      <c r="G120" s="5" t="s">
+      <c r="A120" s="2">
+        <v>86</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120" s="7">
+        <v>4901368</v>
+      </c>
+      <c r="E120" s="7">
+        <v>1212244</v>
+      </c>
+      <c r="F120" s="3">
+        <v>3</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="4">
-        <v>175</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="6">
-        <v>4901425</v>
-      </c>
-      <c r="E121" s="6">
-        <v>1211946</v>
-      </c>
-      <c r="F121" s="5">
-        <v>1</v>
-      </c>
-      <c r="G121" s="5" t="s">
+      <c r="A121" s="2">
+        <v>85</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" s="7">
+        <v>4901289</v>
+      </c>
+      <c r="E121" s="7">
+        <v>1212199</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="2">
-        <v>100</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D122" s="7">
-        <v>4901457</v>
-      </c>
-      <c r="E122" s="7">
-        <v>1212213</v>
-      </c>
-      <c r="F122" s="3">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="A122" s="4">
+        <v>172</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122" s="6">
+        <v>4901231</v>
+      </c>
+      <c r="E122" s="6">
+        <v>1212128</v>
+      </c>
+      <c r="F122" s="5">
+        <v>1</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="2">
-        <v>20</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D123" s="7">
-        <v>4901481</v>
-      </c>
-      <c r="E123" s="7">
-        <v>1212069</v>
-      </c>
-      <c r="F123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="A123" s="4">
+        <v>176</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D123" s="6">
+        <v>4901286</v>
+      </c>
+      <c r="E123" s="6">
+        <v>1212497</v>
+      </c>
+      <c r="F123" s="5">
+        <v>1</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="D124" s="7">
-        <v>4901368</v>
+        <v>4901375</v>
       </c>
       <c r="E124" s="7">
-        <v>1212244</v>
+        <v>1212396</v>
       </c>
       <c r="F124" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>0</v>
@@ -3822,22 +3886,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D125" s="7">
-        <v>4901289</v>
+        <v>4901288</v>
       </c>
       <c r="E125" s="7">
-        <v>1212199</v>
+        <v>1213331</v>
       </c>
       <c r="F125" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>0</v>
@@ -3845,19 +3909,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D126" s="6">
-        <v>4901231</v>
+        <v>4901111</v>
       </c>
       <c r="E126" s="6">
-        <v>1212128</v>
+        <v>1213257</v>
       </c>
       <c r="F126" s="5">
         <v>1</v>
@@ -3868,19 +3932,19 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="D127" s="6">
-        <v>4901286</v>
+        <v>4901227</v>
       </c>
       <c r="E127" s="6">
-        <v>1212497</v>
+        <v>1213465</v>
       </c>
       <c r="F127" s="5">
         <v>1</v>
@@ -3890,89 +3954,89 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="2">
-        <v>261</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D128" s="7">
-        <v>4901375</v>
-      </c>
-      <c r="E128" s="7">
-        <v>1212396</v>
-      </c>
-      <c r="F128" s="3">
-        <v>2</v>
-      </c>
-      <c r="G128" s="3" t="s">
+      <c r="A128" s="4">
+        <v>169</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D128" s="6">
+        <v>4901176</v>
+      </c>
+      <c r="E128" s="6">
+        <v>1213759</v>
+      </c>
+      <c r="F128" s="5">
+        <v>1</v>
+      </c>
+      <c r="G128" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="2">
-        <v>252</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D129" s="7">
-        <v>4901288</v>
-      </c>
-      <c r="E129" s="7">
-        <v>1213331</v>
-      </c>
-      <c r="F129" s="3">
-        <v>5</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="A129" s="4">
+        <v>171</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="6">
+        <v>4900983</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1213624</v>
+      </c>
+      <c r="F129" s="5">
+        <v>1</v>
+      </c>
+      <c r="G129" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="4">
-        <v>170</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="6">
-        <v>4901111</v>
-      </c>
-      <c r="E130" s="6">
-        <v>1213257</v>
-      </c>
-      <c r="F130" s="5">
-        <v>1</v>
-      </c>
-      <c r="G130" s="5" t="s">
+      <c r="A130" s="2">
+        <v>158</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="7">
+        <v>4900949</v>
+      </c>
+      <c r="E130" s="7">
+        <v>1213543</v>
+      </c>
+      <c r="F130" s="3">
+        <v>2</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D131" s="6">
-        <v>4901227</v>
+        <v>4901346</v>
       </c>
       <c r="E131" s="6">
-        <v>1213465</v>
+        <v>1213479</v>
       </c>
       <c r="F131" s="5">
         <v>1</v>
@@ -3982,158 +4046,158 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="4">
-        <v>169</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D132" s="6">
-        <v>4901176</v>
-      </c>
-      <c r="E132" s="6">
-        <v>1213759</v>
-      </c>
-      <c r="F132" s="5">
-        <v>1</v>
-      </c>
-      <c r="G132" s="5" t="s">
+      <c r="A132" s="2">
+        <v>102</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D132" s="7">
+        <v>4901576</v>
+      </c>
+      <c r="E132" s="7">
+        <v>1212299</v>
+      </c>
+      <c r="F132" s="3">
+        <v>2</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="4">
-        <v>171</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="6">
-        <v>4900983</v>
-      </c>
-      <c r="E133" s="6">
-        <v>1213624</v>
-      </c>
-      <c r="F133" s="5">
-        <v>1</v>
-      </c>
-      <c r="G133" s="5" t="s">
+      <c r="A133" s="2">
+        <v>103</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" s="7">
+        <v>4901527</v>
+      </c>
+      <c r="E133" s="7">
+        <v>1212346</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="2">
-        <v>158</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D134" s="7">
-        <v>4900949</v>
-      </c>
-      <c r="E134" s="7">
-        <v>1213543</v>
-      </c>
-      <c r="F134" s="3">
-        <v>2</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="A134" s="4">
+        <v>177</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D134" s="6">
+        <v>4901485</v>
+      </c>
+      <c r="E134" s="6">
+        <v>1212359</v>
+      </c>
+      <c r="F134" s="5">
+        <v>1</v>
+      </c>
+      <c r="G134" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="4">
-        <v>167</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D135" s="6">
-        <v>4901346</v>
-      </c>
-      <c r="E135" s="6">
-        <v>1213479</v>
-      </c>
-      <c r="F135" s="5">
-        <v>1</v>
-      </c>
-      <c r="G135" s="5" t="s">
+      <c r="A135" s="2">
+        <v>104</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="7">
+        <v>4901542</v>
+      </c>
+      <c r="E135" s="7">
+        <v>1212396</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="2">
-        <v>102</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D136" s="7">
-        <v>4901576</v>
-      </c>
-      <c r="E136" s="7">
-        <v>1212299</v>
-      </c>
-      <c r="F136" s="3">
-        <v>2</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="A136" s="4">
+        <v>178</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D136" s="6">
+        <v>4901611</v>
+      </c>
+      <c r="E136" s="6">
+        <v>1211954</v>
+      </c>
+      <c r="F136" s="5">
+        <v>1</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="2">
-        <v>103</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D137" s="7">
-        <v>4901527</v>
-      </c>
-      <c r="E137" s="7">
-        <v>1212346</v>
-      </c>
-      <c r="F137" s="3">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3" t="s">
+      <c r="A137" s="4">
+        <v>180</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" s="6">
+        <v>4901616</v>
+      </c>
+      <c r="E137" s="6">
+        <v>1211697</v>
+      </c>
+      <c r="F137" s="5">
+        <v>1</v>
+      </c>
+      <c r="G137" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D138" s="6">
-        <v>4901485</v>
+        <v>4901664</v>
       </c>
       <c r="E138" s="6">
-        <v>1212359</v>
+        <v>1211526</v>
       </c>
       <c r="F138" s="5">
         <v>1</v>
@@ -4144,65 +4208,65 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D139" s="7">
-        <v>4901542</v>
+        <v>4901740</v>
       </c>
       <c r="E139" s="7">
-        <v>1212396</v>
+        <v>1211532</v>
       </c>
       <c r="F139" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="4">
-        <v>178</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D140" s="6">
-        <v>4901611</v>
-      </c>
-      <c r="E140" s="6">
-        <v>1211954</v>
-      </c>
-      <c r="F140" s="5">
-        <v>1</v>
-      </c>
-      <c r="G140" s="5" t="s">
+      <c r="A140" s="2">
+        <v>206</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D140" s="7">
+        <v>4901785</v>
+      </c>
+      <c r="E140" s="7">
+        <v>1211558</v>
+      </c>
+      <c r="F140" s="3">
+        <v>2</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="D141" s="6">
-        <v>4901616</v>
+        <v>4901710</v>
       </c>
       <c r="E141" s="6">
-        <v>1211697</v>
+        <v>1211350</v>
       </c>
       <c r="F141" s="5">
         <v>1</v>
@@ -4213,19 +4277,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D142" s="6">
-        <v>4901664</v>
+        <v>4901848</v>
       </c>
       <c r="E142" s="6">
-        <v>1211526</v>
+        <v>1211198</v>
       </c>
       <c r="F142" s="5">
         <v>1</v>
@@ -4236,65 +4300,65 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D143" s="7">
-        <v>4901740</v>
+        <v>4901817</v>
       </c>
       <c r="E143" s="7">
-        <v>1211532</v>
+        <v>1211169</v>
       </c>
       <c r="F143" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="2">
-        <v>206</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D144" s="7">
-        <v>4901785</v>
-      </c>
-      <c r="E144" s="7">
-        <v>1211558</v>
-      </c>
-      <c r="F144" s="3">
-        <v>2</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="A144" s="4">
+        <v>186</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D144" s="6">
+        <v>4901815</v>
+      </c>
+      <c r="E144" s="6">
+        <v>1210951</v>
+      </c>
+      <c r="F144" s="5">
+        <v>1</v>
+      </c>
+      <c r="G144" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D145" s="6">
-        <v>4901710</v>
+        <v>4901885</v>
       </c>
       <c r="E145" s="6">
-        <v>1211350</v>
+        <v>1210972</v>
       </c>
       <c r="F145" s="5">
         <v>1</v>
@@ -4305,19 +4369,19 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D146" s="6">
-        <v>4901848</v>
+        <v>4901567</v>
       </c>
       <c r="E146" s="6">
-        <v>1211198</v>
+        <v>1210683</v>
       </c>
       <c r="F146" s="5">
         <v>1</v>
@@ -4327,89 +4391,89 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="2">
-        <v>157</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D147" s="7">
-        <v>4901817</v>
-      </c>
-      <c r="E147" s="7">
-        <v>1211169</v>
-      </c>
-      <c r="F147" s="3">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="A147" s="4">
+        <v>184</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D147" s="6">
+        <v>4901620</v>
+      </c>
+      <c r="E147" s="6">
+        <v>1210965</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1</v>
+      </c>
+      <c r="G147" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="4">
-        <v>186</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D148" s="6">
-        <v>4901815</v>
-      </c>
-      <c r="E148" s="6">
-        <v>1210951</v>
-      </c>
-      <c r="F148" s="5">
-        <v>1</v>
-      </c>
-      <c r="G148" s="5" t="s">
+      <c r="A148" s="2">
+        <v>227</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D148" s="7">
+        <v>4901393</v>
+      </c>
+      <c r="E148" s="7">
+        <v>1211616</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="4">
-        <v>185</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D149" s="6">
-        <v>4901885</v>
-      </c>
-      <c r="E149" s="6">
-        <v>1210972</v>
-      </c>
-      <c r="F149" s="5">
-        <v>1</v>
-      </c>
-      <c r="G149" s="5" t="s">
+      <c r="A149" s="2">
+        <v>48</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D149" s="7">
+        <v>4901457</v>
+      </c>
+      <c r="E149" s="7">
+        <v>1211185</v>
+      </c>
+      <c r="F149" s="3">
+        <v>2</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D150" s="6">
-        <v>4901567</v>
+        <v>4901464</v>
       </c>
       <c r="E150" s="6">
-        <v>1210683</v>
+        <v>1211308</v>
       </c>
       <c r="F150" s="5">
         <v>1</v>
@@ -4420,19 +4484,19 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="D151" s="6">
-        <v>4901620</v>
+        <v>4901551</v>
       </c>
       <c r="E151" s="6">
-        <v>1210965</v>
+        <v>1211577</v>
       </c>
       <c r="F151" s="5">
         <v>1</v>
@@ -4442,66 +4506,66 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="2">
-        <v>227</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D152" s="7">
-        <v>4901393</v>
-      </c>
-      <c r="E152" s="7">
-        <v>1211616</v>
-      </c>
-      <c r="F152" s="3">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3" t="s">
+      <c r="A152" s="4">
+        <v>157</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" s="6">
+        <v>4899120</v>
+      </c>
+      <c r="E152" s="6">
+        <v>1212554</v>
+      </c>
+      <c r="F152" s="5">
+        <v>1</v>
+      </c>
+      <c r="G152" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="2">
-        <v>48</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D153" s="7">
-        <v>4901457</v>
-      </c>
-      <c r="E153" s="7">
-        <v>1211185</v>
-      </c>
-      <c r="F153" s="3">
-        <v>2</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="A153" s="4">
+        <v>453</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D153" s="6">
+        <v>4899101</v>
+      </c>
+      <c r="E153" s="6">
+        <v>1212511</v>
+      </c>
+      <c r="F153" s="5">
+        <v>1</v>
+      </c>
+      <c r="G153" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="D154" s="6">
-        <v>4901464</v>
+        <v>4899145</v>
       </c>
       <c r="E154" s="6">
-        <v>1211308</v>
+        <v>1212700</v>
       </c>
       <c r="F154" s="5">
         <v>1</v>
@@ -4512,19 +4576,19 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="D155" s="6">
-        <v>4901551</v>
+        <v>4899113</v>
       </c>
       <c r="E155" s="6">
-        <v>1211577</v>
+        <v>1213063</v>
       </c>
       <c r="F155" s="5">
         <v>1</v>
@@ -4534,43 +4598,43 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="4">
-        <v>157</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D156" s="6">
-        <v>4899120</v>
-      </c>
-      <c r="E156" s="6">
-        <v>1212554</v>
-      </c>
-      <c r="F156" s="5">
-        <v>1</v>
-      </c>
-      <c r="G156" s="5" t="s">
+      <c r="A156" s="2">
+        <v>232</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="7">
+        <v>4899091</v>
+      </c>
+      <c r="E156" s="7">
+        <v>1212869</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4">
-        <v>453</v>
+        <v>153</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D157" s="6">
-        <v>4899101</v>
+        <v>4898745</v>
       </c>
       <c r="E157" s="6">
-        <v>1212511</v>
+        <v>1214450</v>
       </c>
       <c r="F157" s="5">
         <v>1</v>
@@ -4581,19 +4645,19 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4">
-        <v>158</v>
+        <v>489</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D158" s="6">
-        <v>4899145</v>
+        <v>4898999</v>
       </c>
       <c r="E158" s="6">
-        <v>1212700</v>
+        <v>1212687</v>
       </c>
       <c r="F158" s="5">
         <v>1</v>
@@ -4604,19 +4668,19 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D159" s="6">
-        <v>4899113</v>
+        <v>4898972</v>
       </c>
       <c r="E159" s="6">
-        <v>1213063</v>
+        <v>1212584</v>
       </c>
       <c r="F159" s="5">
         <v>1</v>
@@ -4626,43 +4690,43 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="2">
-        <v>232</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D160" s="7">
-        <v>4899091</v>
-      </c>
-      <c r="E160" s="7">
-        <v>1212869</v>
-      </c>
-      <c r="F160" s="3">
-        <v>1</v>
-      </c>
-      <c r="G160" s="3" t="s">
+      <c r="A160" s="4">
+        <v>155</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D160" s="6">
+        <v>4898804</v>
+      </c>
+      <c r="E160" s="6">
+        <v>1212685</v>
+      </c>
+      <c r="F160" s="5">
+        <v>1</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="D161" s="6">
-        <v>4898745</v>
+        <v>4898809</v>
       </c>
       <c r="E161" s="6">
-        <v>1214450</v>
+        <v>1212934</v>
       </c>
       <c r="F161" s="5">
         <v>1</v>
@@ -4673,19 +4737,19 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4">
-        <v>489</v>
+        <v>143</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="D162" s="6">
-        <v>4898999</v>
+        <v>4898966</v>
       </c>
       <c r="E162" s="6">
-        <v>1212687</v>
+        <v>1212883</v>
       </c>
       <c r="F162" s="5">
         <v>1</v>
@@ -4695,43 +4759,43 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="4">
-        <v>156</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D163" s="6">
-        <v>4898972</v>
-      </c>
-      <c r="E163" s="6">
-        <v>1212584</v>
-      </c>
-      <c r="F163" s="5">
-        <v>1</v>
-      </c>
-      <c r="G163" s="5" t="s">
+      <c r="A163" s="2">
+        <v>12</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D163" s="7">
+        <v>4899030</v>
+      </c>
+      <c r="E163" s="7">
+        <v>1213080</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="D164" s="6">
-        <v>4898804</v>
+        <v>4899013</v>
       </c>
       <c r="E164" s="6">
-        <v>1212685</v>
+        <v>1213133</v>
       </c>
       <c r="F164" s="5">
         <v>1</v>
@@ -4742,19 +4806,19 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D165" s="6">
-        <v>4898809</v>
+        <v>4898873</v>
       </c>
       <c r="E165" s="6">
-        <v>1212934</v>
+        <v>1213177</v>
       </c>
       <c r="F165" s="5">
         <v>1</v>
@@ -4765,19 +4829,19 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="D166" s="6">
-        <v>4898966</v>
+        <v>4899086</v>
       </c>
       <c r="E166" s="6">
-        <v>1212883</v>
+        <v>1213641</v>
       </c>
       <c r="F166" s="5">
         <v>1</v>
@@ -4787,43 +4851,43 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="2">
-        <v>12</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C167" s="3" t="s">
+      <c r="A167" s="4">
         <v>145</v>
       </c>
-      <c r="D167" s="7">
-        <v>4899030</v>
-      </c>
-      <c r="E167" s="7">
-        <v>1213080</v>
-      </c>
-      <c r="F167" s="3">
-        <v>1</v>
-      </c>
-      <c r="G167" s="3" t="s">
+      <c r="B167" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" s="6">
+        <v>4899128</v>
+      </c>
+      <c r="E167" s="6">
+        <v>1213378</v>
+      </c>
+      <c r="F167" s="5">
+        <v>1</v>
+      </c>
+      <c r="G167" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D168" s="6">
-        <v>4899013</v>
+        <v>4899298</v>
       </c>
       <c r="E168" s="6">
-        <v>1213133</v>
+        <v>1214074</v>
       </c>
       <c r="F168" s="5">
         <v>1</v>
@@ -4834,19 +4898,19 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D169" s="6">
-        <v>4898873</v>
+        <v>4899175</v>
       </c>
       <c r="E169" s="6">
-        <v>1213177</v>
+        <v>1214339</v>
       </c>
       <c r="F169" s="5">
         <v>1</v>
@@ -4857,19 +4921,19 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4">
-        <v>146</v>
+        <v>461</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D170" s="6">
-        <v>4899086</v>
+        <v>4899023</v>
       </c>
       <c r="E170" s="6">
-        <v>1213641</v>
+        <v>1214268</v>
       </c>
       <c r="F170" s="5">
         <v>1</v>
@@ -4880,19 +4944,19 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D171" s="6">
-        <v>4899128</v>
+        <v>4898990</v>
       </c>
       <c r="E171" s="6">
-        <v>1213378</v>
+        <v>1214519</v>
       </c>
       <c r="F171" s="5">
         <v>1</v>
@@ -4902,112 +4966,112 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="4">
-        <v>147</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D172" s="6">
-        <v>4899298</v>
-      </c>
-      <c r="E172" s="6">
-        <v>1214074</v>
-      </c>
-      <c r="F172" s="5">
-        <v>1</v>
-      </c>
-      <c r="G172" s="5" t="s">
+      <c r="A172" s="2">
+        <v>39</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D172" s="7">
+        <v>4900546</v>
+      </c>
+      <c r="E172" s="7">
+        <v>1210588</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="4">
-        <v>148</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D173" s="6">
-        <v>4899175</v>
-      </c>
-      <c r="E173" s="6">
-        <v>1214339</v>
-      </c>
-      <c r="F173" s="5">
-        <v>1</v>
-      </c>
-      <c r="G173" s="5" t="s">
+      <c r="A173" s="2">
+        <v>37</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" s="7">
+        <v>4898516</v>
+      </c>
+      <c r="E173" s="7">
+        <v>1213740</v>
+      </c>
+      <c r="F173" s="3">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="4">
-        <v>461</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D174" s="6">
-        <v>4899023</v>
-      </c>
-      <c r="E174" s="6">
-        <v>1214268</v>
-      </c>
-      <c r="F174" s="5">
-        <v>1</v>
-      </c>
-      <c r="G174" s="5" t="s">
+      <c r="A174" s="2">
+        <v>36</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" s="7">
+        <v>4898528</v>
+      </c>
+      <c r="E174" s="7">
+        <v>1213632</v>
+      </c>
+      <c r="F174" s="3">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="4">
-        <v>154</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D175" s="6">
-        <v>4898990</v>
-      </c>
-      <c r="E175" s="6">
-        <v>1214519</v>
-      </c>
-      <c r="F175" s="5">
-        <v>1</v>
-      </c>
-      <c r="G175" s="5" t="s">
+      <c r="A175" s="2">
+        <v>35</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D175" s="7">
+        <v>4898650</v>
+      </c>
+      <c r="E175" s="7">
+        <v>1213731</v>
+      </c>
+      <c r="F175" s="3">
+        <v>2</v>
+      </c>
+      <c r="G175" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D176" s="7">
-        <v>4900546</v>
+        <v>4898697</v>
       </c>
       <c r="E176" s="7">
-        <v>1210588</v>
+        <v>1214293</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -5018,22 +5082,22 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="D177" s="7">
-        <v>4898516</v>
+        <v>4898724</v>
       </c>
       <c r="E177" s="7">
-        <v>1213740</v>
+        <v>1214351</v>
       </c>
       <c r="F177" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>0</v>
@@ -5041,19 +5105,19 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="D178" s="7">
-        <v>4898528</v>
+        <v>4898874</v>
       </c>
       <c r="E178" s="7">
-        <v>1213632</v>
+        <v>1214571</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -5064,19 +5128,19 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="D179" s="7">
-        <v>4898650</v>
+        <v>4898804</v>
       </c>
       <c r="E179" s="7">
-        <v>1213731</v>
+        <v>1214274</v>
       </c>
       <c r="F179" s="3">
         <v>2</v>
@@ -5087,19 +5151,19 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
+        <v>137</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="D180" s="7">
-        <v>4898697</v>
+        <v>4898917</v>
       </c>
       <c r="E180" s="7">
-        <v>1214293</v>
+        <v>1214671</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -5110,22 +5174,22 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D181" s="7">
-        <v>4898724</v>
+        <v>4898829</v>
       </c>
       <c r="E181" s="7">
-        <v>1214351</v>
+        <v>1214717</v>
       </c>
       <c r="F181" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>0</v>
@@ -5133,19 +5197,19 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="D182" s="7">
-        <v>4898874</v>
+        <v>4898815</v>
       </c>
       <c r="E182" s="7">
-        <v>1214571</v>
+        <v>1214831</v>
       </c>
       <c r="F182" s="3">
         <v>1</v>
@@ -5156,65 +5220,65 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="D183" s="7">
-        <v>4898804</v>
+        <v>4898735</v>
       </c>
       <c r="E183" s="7">
-        <v>1214274</v>
+        <v>1214906</v>
       </c>
       <c r="F183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="2">
-        <v>137</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D184" s="7">
-        <v>4898917</v>
-      </c>
-      <c r="E184" s="7">
-        <v>1214671</v>
-      </c>
-      <c r="F184" s="3">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3" t="s">
+      <c r="A184" s="4">
+        <v>151</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D184" s="6">
+        <v>4898629</v>
+      </c>
+      <c r="E184" s="6">
+        <v>1214786</v>
+      </c>
+      <c r="F184" s="5">
+        <v>1</v>
+      </c>
+      <c r="G184" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D185" s="7">
-        <v>4898829</v>
+        <v>4898813</v>
       </c>
       <c r="E185" s="7">
-        <v>1214717</v>
+        <v>1214839</v>
       </c>
       <c r="F185" s="3">
         <v>1</v>
@@ -5225,19 +5289,19 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="D186" s="7">
-        <v>4898815</v>
+        <v>4898670</v>
       </c>
       <c r="E186" s="7">
-        <v>1214831</v>
+        <v>1214692</v>
       </c>
       <c r="F186" s="3">
         <v>1</v>
@@ -5247,43 +5311,43 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="2">
-        <v>134</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D187" s="7">
-        <v>4898735</v>
-      </c>
-      <c r="E187" s="7">
-        <v>1214906</v>
-      </c>
-      <c r="F187" s="3">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3" t="s">
+      <c r="A187" s="4">
+        <v>152</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D187" s="6">
+        <v>4898640</v>
+      </c>
+      <c r="E187" s="6">
+        <v>1214521</v>
+      </c>
+      <c r="F187" s="5">
+        <v>1</v>
+      </c>
+      <c r="G187" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="4">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="D188" s="6">
-        <v>4898629</v>
+        <v>4898503</v>
       </c>
       <c r="E188" s="6">
-        <v>1214786</v>
+        <v>1213241</v>
       </c>
       <c r="F188" s="5">
         <v>1</v>
@@ -5293,66 +5357,66 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="2">
-        <v>135</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D189" s="7">
-        <v>4898813</v>
-      </c>
-      <c r="E189" s="7">
-        <v>1214839</v>
-      </c>
-      <c r="F189" s="3">
-        <v>1</v>
-      </c>
-      <c r="G189" s="3" t="s">
+      <c r="A189" s="4">
+        <v>138</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D189" s="6">
+        <v>4898554</v>
+      </c>
+      <c r="E189" s="6">
+        <v>1214148</v>
+      </c>
+      <c r="F189" s="5">
+        <v>1</v>
+      </c>
+      <c r="G189" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="2">
-        <v>133</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D190" s="7">
-        <v>4898670</v>
-      </c>
-      <c r="E190" s="7">
-        <v>1214692</v>
-      </c>
-      <c r="F190" s="3">
-        <v>1</v>
-      </c>
-      <c r="G190" s="3" t="s">
+      <c r="A190" s="4">
+        <v>139</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190" s="6">
+        <v>4898980</v>
+      </c>
+      <c r="E190" s="6">
+        <v>1213871</v>
+      </c>
+      <c r="F190" s="5">
+        <v>1</v>
+      </c>
+      <c r="G190" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="D191" s="6">
-        <v>4898640</v>
+        <v>4898847</v>
       </c>
       <c r="E191" s="6">
-        <v>1214521</v>
+        <v>1213860</v>
       </c>
       <c r="F191" s="5">
         <v>1</v>
@@ -5362,89 +5426,89 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="4">
-        <v>133</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D192" s="6">
-        <v>4898503</v>
-      </c>
-      <c r="E192" s="6">
-        <v>1213241</v>
-      </c>
-      <c r="F192" s="5">
-        <v>1</v>
-      </c>
-      <c r="G192" s="5" t="s">
+      <c r="A192" s="2">
+        <v>130</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D192" s="7">
+        <v>4898666</v>
+      </c>
+      <c r="E192" s="7">
+        <v>1213614</v>
+      </c>
+      <c r="F192" s="3">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="4">
-        <v>138</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D193" s="6">
-        <v>4898554</v>
-      </c>
-      <c r="E193" s="6">
-        <v>1214148</v>
-      </c>
-      <c r="F193" s="5">
-        <v>1</v>
-      </c>
-      <c r="G193" s="5" t="s">
+      <c r="A193" s="2">
+        <v>131</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D193" s="7">
+        <v>4898650</v>
+      </c>
+      <c r="E193" s="7">
+        <v>1213527</v>
+      </c>
+      <c r="F193" s="3">
+        <v>1</v>
+      </c>
+      <c r="G193" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="4">
-        <v>139</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D194" s="6">
-        <v>4898980</v>
-      </c>
-      <c r="E194" s="6">
-        <v>1213871</v>
-      </c>
-      <c r="F194" s="5">
-        <v>1</v>
-      </c>
-      <c r="G194" s="5" t="s">
+      <c r="A194" s="2">
+        <v>132</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D194" s="7">
+        <v>4898629</v>
+      </c>
+      <c r="E194" s="7">
+        <v>1213465</v>
+      </c>
+      <c r="F194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="4">
-        <v>136</v>
+        <v>462</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="D195" s="6">
-        <v>4898847</v>
+        <v>4898653</v>
       </c>
       <c r="E195" s="6">
-        <v>1213860</v>
+        <v>1213879</v>
       </c>
       <c r="F195" s="5">
         <v>1</v>
@@ -5454,89 +5518,89 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="2">
-        <v>130</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D196" s="7">
-        <v>4898666</v>
-      </c>
-      <c r="E196" s="7">
-        <v>1213614</v>
-      </c>
-      <c r="F196" s="3">
-        <v>1</v>
-      </c>
-      <c r="G196" s="3" t="s">
+      <c r="A196" s="4">
+        <v>132</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D196" s="6">
+        <v>4898377</v>
+      </c>
+      <c r="E196" s="6">
+        <v>1213575</v>
+      </c>
+      <c r="F196" s="5">
+        <v>2</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="2">
+      <c r="A197" s="4">
+        <v>137</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D197" s="6">
+        <v>4898523</v>
+      </c>
+      <c r="E197" s="6">
+        <v>1213879</v>
+      </c>
+      <c r="F197" s="5">
+        <v>1</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="4">
         <v>131</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D197" s="7">
-        <v>4898650</v>
-      </c>
-      <c r="E197" s="7">
-        <v>1213527</v>
-      </c>
-      <c r="F197" s="3">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="2">
-        <v>132</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D198" s="7">
-        <v>4898629</v>
-      </c>
-      <c r="E198" s="7">
-        <v>1213465</v>
-      </c>
-      <c r="F198" s="3">
-        <v>1</v>
-      </c>
-      <c r="G198" s="3" t="s">
+      <c r="B198" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198" s="6">
+        <v>4898227</v>
+      </c>
+      <c r="E198" s="6">
+        <v>1213823</v>
+      </c>
+      <c r="F198" s="5">
+        <v>1</v>
+      </c>
+      <c r="G198" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="4">
-        <v>462</v>
+        <v>149</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="D199" s="6">
-        <v>4898653</v>
+        <v>4898225</v>
       </c>
       <c r="E199" s="6">
-        <v>1213879</v>
+        <v>1214145</v>
       </c>
       <c r="F199" s="5">
         <v>1</v>
@@ -5547,22 +5611,22 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="4">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="D200" s="6">
-        <v>4898377</v>
+        <v>4898353</v>
       </c>
       <c r="E200" s="6">
-        <v>1213575</v>
+        <v>1214519</v>
       </c>
       <c r="F200" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>0</v>
@@ -5570,116 +5634,24 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="4">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D201" s="6">
-        <v>4898523</v>
+        <v>4898732</v>
       </c>
       <c r="E201" s="6">
-        <v>1213879</v>
+        <v>1213459</v>
       </c>
       <c r="F201" s="5">
         <v>1</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="4">
-        <v>131</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D202" s="6">
-        <v>4898227</v>
-      </c>
-      <c r="E202" s="6">
-        <v>1213823</v>
-      </c>
-      <c r="F202" s="5">
-        <v>1</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="4">
-        <v>149</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D203" s="6">
-        <v>4898225</v>
-      </c>
-      <c r="E203" s="6">
-        <v>1214145</v>
-      </c>
-      <c r="F203" s="5">
-        <v>1</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="4">
-        <v>150</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D204" s="6">
-        <v>4898353</v>
-      </c>
-      <c r="E204" s="6">
-        <v>1214519</v>
-      </c>
-      <c r="F204" s="5">
-        <v>1</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="4">
-        <v>134</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D205" s="6">
-        <v>4898732</v>
-      </c>
-      <c r="E205" s="6">
-        <v>1213459</v>
-      </c>
-      <c r="F205" s="5">
-        <v>1</v>
-      </c>
-      <c r="G205" s="5" t="s">
         <v>0</v>
       </c>
     </row>
